--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onslowcollege-my.sharepoint.com/personal/noah_leru_student_onslow_school_nz/Documents/2022/11 DIT/School/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="8_{A2F53D0E-FBA1-4E74-8ED0-040A2F17CB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD643AF-BA13-4B46-AAB1-75AAE6E64CCC}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="8_{A2F53D0E-FBA1-4E74-8ED0-040A2F17CB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6718D142-FE87-4B17-B9CC-D354D1338E95}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{935E8C45-BB80-474D-9DEC-00750E9622B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="233">
   <si>
     <t>Level</t>
   </si>
@@ -56,9 +56,27 @@
     <t>How many cards in a deck of cards?</t>
   </si>
   <si>
+    <t>A) 52,B) 12,C) 32,D) 65</t>
+  </si>
+  <si>
+    <t>A,52</t>
+  </si>
+  <si>
     <t>B,12,C,32,D,65</t>
   </si>
   <si>
+    <t>What is the biggest ocean?</t>
+  </si>
+  <si>
+    <t>A) ATLANTIC,B) INDIAN,C) ARTIC,D) PACIFIC</t>
+  </si>
+  <si>
+    <t>D,PACIFIC</t>
+  </si>
+  <si>
+    <t>A,ATLANTIC,B,INDIAN,C,ARTIC</t>
+  </si>
+  <si>
     <t>How may side does a docdecahedron have?</t>
   </si>
   <si>
@@ -71,18 +89,6 @@
     <t>A,10,C,11,B,13</t>
   </si>
   <si>
-    <t>What is the biggest ocean?</t>
-  </si>
-  <si>
-    <t>A) ATLANTIC,B) INDIAN,C) ARTIC,D) PACIFIC</t>
-  </si>
-  <si>
-    <t>D,PACIFIC</t>
-  </si>
-  <si>
-    <t>A,ATLANTIC,B,INDIAN,C,ARTIC</t>
-  </si>
-  <si>
     <t>Which car company produces the mustang?</t>
   </si>
   <si>
@@ -119,7 +125,7 @@
     <t>A,FRANCE,C,ARGENTINA,D,PORTUGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Which country if home to the ancient city of Petra? </t>
+    <t xml:space="preserve">Which country is home to the ancient city of Petra? </t>
   </si>
   <si>
     <t>A) SUDAN,B) JORDAN,C) EGYPT,D) ARABIA</t>
@@ -143,7 +149,7 @@
     <t>B,ENGLISH</t>
   </si>
   <si>
-    <t>Who lost the first even FIFA world cup?</t>
+    <t>Who lost the first ever FIFA world cup?</t>
   </si>
   <si>
     <t>A) URUGUAY,B) FRANCE,C) ARGENTINA,D) ITALY</t>
@@ -158,13 +164,13 @@
     <t>Seoul is further north than tokyo?</t>
   </si>
   <si>
-    <t>True or False</t>
-  </si>
-  <si>
-    <t>T,TRUE</t>
-  </si>
-  <si>
-    <t>F,FALSE</t>
+    <t>A) True,B) False</t>
+  </si>
+  <si>
+    <t>T,TRUE,A</t>
+  </si>
+  <si>
+    <t>F,FALSE,B</t>
   </si>
   <si>
     <t>What is the most populus city in USA's biggest state (area)?</t>
@@ -278,15 +284,12 @@
     <t>Port means left in boating terms?</t>
   </si>
   <si>
-    <t>True,False</t>
+    <t>A,T,TRUE</t>
   </si>
   <si>
     <t>True or False: Azerbaijan has more than 5 million people?</t>
   </si>
   <si>
-    <t>True, False</t>
-  </si>
-  <si>
     <t>What state was Barack Obama born in?</t>
   </si>
   <si>
@@ -314,10 +317,10 @@
     <t>How many countries are in Europe?</t>
   </si>
   <si>
-    <t>A) 40,B) 45,C) 48,D) 49</t>
-  </si>
-  <si>
-    <t>B,45</t>
+    <t>A) 40,B) 44,C) 48,D) 49</t>
+  </si>
+  <si>
+    <t>B,44</t>
   </si>
   <si>
     <t>A,40,C,48,D,49</t>
@@ -326,6 +329,9 @@
     <t>What is name of a 6-sided shape?</t>
   </si>
   <si>
+    <t>A) PENTAGON,B) HEXAGON,C) HEPTAGON,D) OCTAGON</t>
+  </si>
+  <si>
     <t>B,HEXAGON</t>
   </si>
   <si>
@@ -368,6 +374,15 @@
     <t>B,AG,C,FE,D,PT</t>
   </si>
   <si>
+    <t xml:space="preserve">What is the biggest continent (area)? </t>
+  </si>
+  <si>
+    <t>A) ANTARTICA,B) ASIA,C) SOUTH AMERICA,D) OCEANIA</t>
+  </si>
+  <si>
+    <t>A,ANTARTICA,C,SOUTH AMERICA,D,OCEANIA</t>
+  </si>
+  <si>
     <t>Which country has won the most olympic gold medals?</t>
   </si>
   <si>
@@ -380,25 +395,16 @@
     <t>A,FRANCE,B,UK,D,CHINA</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the biggest continent (area)? </t>
-  </si>
-  <si>
-    <t>A) ANTARTICA,B) ASIA,C) SOUTH AMERICA,D) OCEANIA</t>
-  </si>
-  <si>
-    <t>A,ANTARTICA,C,SOUTH AMERICA,D,OCEANIA</t>
-  </si>
-  <si>
-    <t>Which artis has the most streams on spotify?</t>
-  </si>
-  <si>
-    <t>A) DRAKE,B) THE WEEKEND,C) SHAKIRA,D) ED SHEERAN</t>
+    <t>Which artist has the most streams on spotify?</t>
+  </si>
+  <si>
+    <t>A) DRAKE,B) THE WEEKEND,C) SHAKIRA,D) JUICE WRLD</t>
   </si>
   <si>
     <t>A,DRAKE</t>
   </si>
   <si>
-    <t>B,THE WEEKEND,C,SHAKIRA,D,ED SHEERAN</t>
+    <t>B,THE WEEKEND,C,SHAKIRA,D,JUICE WRLD</t>
   </si>
   <si>
     <t>What is a group of pandas known as?</t>
@@ -428,7 +434,13 @@
     <t>True or False: A mile is  longer than a nautical mile?</t>
   </si>
   <si>
-    <t>TRUE,FALSE</t>
+    <t>A) TRUE,B) FALSE</t>
+  </si>
+  <si>
+    <t>B,FALSE,F</t>
+  </si>
+  <si>
+    <t>T,TRUE,B</t>
   </si>
   <si>
     <t>Which of these US states does not have a coastline on the gulf of mexico?</t>
@@ -437,10 +449,10 @@
     <t>A) ALABAMA,B) GEORGIA,C) TEXAS,D) FLORIDA</t>
   </si>
   <si>
-    <t>D,FLORIDA</t>
-  </si>
-  <si>
-    <t>A,ALABAMA,B,GEORGIA,C,TEXAS</t>
+    <t>B,GEORGIA</t>
+  </si>
+  <si>
+    <t>A,ALABAMA,C,TEXAS,D,FLORIDA</t>
   </si>
   <si>
     <t>Where would you find the city cadiz?</t>
@@ -479,10 +491,31 @@
     <t>A,GEORGE BUSH,C,BARACK OBAMA,D,BILL CLINTON</t>
   </si>
   <si>
+    <t>What is the higest grossing movie?</t>
+  </si>
+  <si>
+    <t>A) TITANIC,B) AVATAR,C) THOR,D) SHREK 2</t>
+  </si>
+  <si>
+    <t>B,AVATAR</t>
+  </si>
+  <si>
+    <t>A,TITANIC,C,THOR,D,SHREK</t>
+  </si>
+  <si>
+    <t>Which country has the higest recorded temprature?</t>
+  </si>
+  <si>
+    <t>A) MEXICO,B) SPAIN,C) USA,D) UAE</t>
+  </si>
+  <si>
+    <t>A,MEXICO,B,SPAIN,D,UAE</t>
+  </si>
+  <si>
     <t>Which country is mount Everest in ?</t>
   </si>
   <si>
-    <t>A) INDIA, B) CHINA &amp; NEPAL,C) CHINA, HIMALAYA</t>
+    <t>A) INDIA, B) CHINA &amp; NEPAL,C) CHINA,D) HIMALAYA</t>
   </si>
   <si>
     <t>B,CHINA &amp; NEPAL</t>
@@ -491,27 +524,6 @@
     <t>A,INDIA,C,CHINA,D,HIMALAYA</t>
   </si>
   <si>
-    <t>Which country has the higest recorded temprature?</t>
-  </si>
-  <si>
-    <t>A) MEXICO,B) SPAIN,C) USA,D) UAE</t>
-  </si>
-  <si>
-    <t>A,MEXICO,B,SPAIN,D,UAE</t>
-  </si>
-  <si>
-    <t>What is the higest grossing movie?</t>
-  </si>
-  <si>
-    <t>A) TITANIC,B) AVATAR,C) THOR,D) SHREK 2</t>
-  </si>
-  <si>
-    <t>B,AVATAR</t>
-  </si>
-  <si>
-    <t>A,TITANIC,C,THOR,D,SHREK</t>
-  </si>
-  <si>
     <t>What nationality was the composer Beethoven?</t>
   </si>
   <si>
@@ -596,6 +608,48 @@
     <t>A,PRETORIA,C,CAPE TOWN,D,BLOMFONTEIN</t>
   </si>
   <si>
+    <t>What is the capital of Australia?</t>
+  </si>
+  <si>
+    <t>A) SYDNEY,B) MELBOURNE,C) CANBERRA,D) BRISBANE</t>
+  </si>
+  <si>
+    <t>C,CANBERRA</t>
+  </si>
+  <si>
+    <t>A,SYDNEY,B,MELBOURNE,D,BRISBANE</t>
+  </si>
+  <si>
+    <t>Which city is known as the Big Apple?</t>
+  </si>
+  <si>
+    <t>A) BOSTON,B) LOS ANGELES,C) NEW YORK,D) LAS VEGAS</t>
+  </si>
+  <si>
+    <t>C,NEW YORK</t>
+  </si>
+  <si>
+    <t>A,BOSTON,B,LOS ANGELES,D,LAS VEGAS</t>
+  </si>
+  <si>
+    <t>True or False: Earth has more than 8 billion people?</t>
+  </si>
+  <si>
+    <t>A,TRUE,T</t>
+  </si>
+  <si>
+    <t>What language is spoken in Brazil?</t>
+  </si>
+  <si>
+    <t>A) BRAZILIAN,B) SPANISH,C) PORTUGUESE,D) FRENCH</t>
+  </si>
+  <si>
+    <t>C,PORTUGUESE</t>
+  </si>
+  <si>
+    <t>A,BRAZILIAN,B,SPANISH,D,FRENCH</t>
+  </si>
+  <si>
     <t>In what country is Chernobyl located?</t>
   </si>
   <si>
@@ -608,45 +662,6 @@
     <t>B,RUSSIA,C,MONGOLIA,D,CHINA</t>
   </si>
   <si>
-    <t>Which city is known as the Big Apple?</t>
-  </si>
-  <si>
-    <t>A) BOSTON,B) LOS ANGELES,C) NEW YORK,D) LAS VEGAS</t>
-  </si>
-  <si>
-    <t>C,NEW YORK</t>
-  </si>
-  <si>
-    <t>A,BOSTON,B,LOS ANGELES,D,LAS VEGAS</t>
-  </si>
-  <si>
-    <t>What is the capital of Australia?</t>
-  </si>
-  <si>
-    <t>A) SYDNEY,B) MELBOURNE,C) CANBERRA,D) BRISBANE</t>
-  </si>
-  <si>
-    <t>C,CANBERRA</t>
-  </si>
-  <si>
-    <t>A,SYDNEY,B,MELBOURNE,D,BRISBANE</t>
-  </si>
-  <si>
-    <t>What language is spoken in Brazil?</t>
-  </si>
-  <si>
-    <t>A) BRAZILIAN,B) SPANISH,C) PORTUGUESE,D) FRENCH</t>
-  </si>
-  <si>
-    <t>C,PORTUGUESE</t>
-  </si>
-  <si>
-    <t>A,BRAZILIAN,B,SPANISH,D,FRENCH</t>
-  </si>
-  <si>
-    <t>True or False: Earth has more than 8 billion people?</t>
-  </si>
-  <si>
     <t>In medical profession what does GP stand for?</t>
   </si>
   <si>
@@ -720,22 +735,13 @@
   </si>
   <si>
     <t>B,85,C,105,D,72</t>
-  </si>
-  <si>
-    <t>A) 52,B) 12,C) 32,D) 65</t>
-  </si>
-  <si>
-    <t>A,52</t>
-  </si>
-  <si>
-    <t>A) PENTAGON,B) HEXAGON,C) HEPTAGON,D) OCTAGON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,10 +787,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1084,15 +1086,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5989D61A-780D-42D6-8A38-8F3DCD8AAFD6}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>500</v>
       </c>
@@ -1117,1016 +1119,1016 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2000</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5000</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>10000</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>20000</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>50000</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>75000</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>150000</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>250000</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>500000</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13">
         <v>1000000</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>500</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1000</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>5000</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>10000</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>20000</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>50000</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>75000</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>150000</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>250000</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>500000</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>1000000</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>500</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>1000</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>2000</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>5000</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>10000</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>20000</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>50000</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>75000</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>150000</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>250000</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>500000</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>1000000</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>500</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>1000</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>2000</v>
       </c>
       <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" t="s">
         <v>154</v>
       </c>
-      <c r="C43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>5000</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>10000</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>20000</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>50000</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>75000</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>150000</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>250000</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>500000</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>1000000</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>500</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>1000</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>2000</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>5000</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>10000</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>20000</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>50000</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>75000</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>150000</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>250000</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>500000</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>1000000</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2379,37 +2381,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7C52502-64F8-4663-8EEC-7DFE125FD4CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7C52502-64F8-4663-8EEC-7DFE125FD4CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3599ABB-2EE6-4885-9600-D206794C3507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a574197a-cfcc-4eba-9a6f-9adf0a15d2e1"/>
-    <ds:schemaRef ds:uri="7e573fbd-8c4a-457b-9ecd-e2b7319d9c6b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3599ABB-2EE6-4885-9600-D206794C3507}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3694655-D81A-4630-B816-221A72D2A290}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3694655-D81A-4630-B816-221A72D2A290}"/>
 </file>